--- a/Docs/Mapping.xlsx
+++ b/Docs/Mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\INDI_23-24_Automation_of_a_Production_Line\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\INDI_23-24_Automation_of_a_Production_Line\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E24C9BB-502F-4823-93ED-B39ED5104354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D13147C-1409-403F-908D-5CCB52342651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E7531F86-CD14-469F-BE46-90E0953B7E75}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="256">
   <si>
     <t>Channel</t>
   </si>
@@ -709,6 +709,102 @@
   </si>
   <si>
     <t>2:0040</t>
+  </si>
+  <si>
+    <t>block_conv1</t>
+  </si>
+  <si>
+    <t>block_conv2</t>
+  </si>
+  <si>
+    <t>block_conv3</t>
+  </si>
+  <si>
+    <t>block_conv4</t>
+  </si>
+  <si>
+    <t>block_conv5</t>
+  </si>
+  <si>
+    <t>block_conv6</t>
+  </si>
+  <si>
+    <t>block_conv7</t>
+  </si>
+  <si>
+    <t>block_conv8</t>
+  </si>
+  <si>
+    <t>block_conv9</t>
+  </si>
+  <si>
+    <t>block_conv10</t>
+  </si>
+  <si>
+    <t>block_conv11</t>
+  </si>
+  <si>
+    <t>block_conv12</t>
+  </si>
+  <si>
+    <t>block_conv13</t>
+  </si>
+  <si>
+    <t>elapsed_time_mach1</t>
+  </si>
+  <si>
+    <t>elapsed_time_mach2</t>
+  </si>
+  <si>
+    <t>4:0008</t>
+  </si>
+  <si>
+    <t>4:0009</t>
+  </si>
+  <si>
+    <t>4:0010</t>
+  </si>
+  <si>
+    <t>4:0011</t>
+  </si>
+  <si>
+    <t>4:0012</t>
+  </si>
+  <si>
+    <t>4:0013</t>
+  </si>
+  <si>
+    <t>4:0014</t>
+  </si>
+  <si>
+    <t>4:0015</t>
+  </si>
+  <si>
+    <t>4:0016</t>
+  </si>
+  <si>
+    <t>4:0017</t>
+  </si>
+  <si>
+    <t>4:0018</t>
+  </si>
+  <si>
+    <t>4:0019</t>
+  </si>
+  <si>
+    <t>4:0020</t>
+  </si>
+  <si>
+    <t>4:0021</t>
+  </si>
+  <si>
+    <t>4:0022</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -1096,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D1D498-0DE3-4D8E-929D-9211CC6CDF96}">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B42" activeCellId="1" sqref="B2:P2 B42:P43"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3354,10 +3450,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE25F351-A1F9-4C05-A232-8ADB34DE3270}">
-  <dimension ref="A1:AM43"/>
+  <dimension ref="A1:AM59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B43" sqref="B42:B43"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3622,7 +3718,7 @@
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" t="str">
-        <f t="shared" ref="B4:B43" si="0">CONCATENATE("Application.MAIN_SM.",H4)</f>
+        <f t="shared" ref="B4:B59" si="0">CONCATENATE("Application.MAIN_SM.",H4)</f>
         <v>Application.MAIN_SM.op_mode_conv1</v>
       </c>
       <c r="C4" s="1"/>
@@ -3710,7 +3806,7 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="str">
-        <f t="shared" ref="D5:D43" si="1">CONCATENATE(H5," : WORD;")</f>
+        <f t="shared" ref="D5:D59" si="1">CONCATENATE(H5," : WORD;")</f>
         <v>manual_cm_conv1 : WORD;</v>
       </c>
       <c r="E5" s="1"/>
@@ -6024,7 +6120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
@@ -6106,7 +6202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
@@ -6188,7 +6284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
@@ -6270,7 +6366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
@@ -6352,7 +6448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
@@ -6434,7 +6530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
@@ -6516,7 +6612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
@@ -6598,7 +6694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
@@ -6680,7 +6776,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
@@ -6762,7 +6858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
@@ -6844,7 +6940,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
@@ -6923,6 +7019,1295 @@
         <v>17</v>
       </c>
       <c r="AI43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" t="s">
+        <v>97</v>
+      </c>
+      <c r="M44" t="s">
+        <v>98</v>
+      </c>
+      <c r="N44" t="s">
+        <v>99</v>
+      </c>
+      <c r="O44" t="s">
+        <v>100</v>
+      </c>
+      <c r="P44" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>6</v>
+      </c>
+      <c r="R44" t="s">
+        <v>102</v>
+      </c>
+      <c r="S44" t="s">
+        <v>103</v>
+      </c>
+      <c r="T44" t="s">
+        <v>104</v>
+      </c>
+      <c r="U44" t="s">
+        <v>108</v>
+      </c>
+      <c r="V44" t="s">
+        <v>109</v>
+      </c>
+      <c r="W44" t="s">
+        <v>110</v>
+      </c>
+      <c r="X44" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.block_conv1</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="1"/>
+        <v>block_conv1 : WORD;</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>224</v>
+      </c>
+      <c r="I45">
+        <v>40</v>
+      </c>
+      <c r="J45" t="s">
+        <v>239</v>
+      </c>
+      <c r="K45" t="s">
+        <v>254</v>
+      </c>
+      <c r="M45" t="s">
+        <v>107</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>9</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA45">
+        <v>1</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.block_conv2</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="1"/>
+        <v>block_conv2 : WORD;</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>225</v>
+      </c>
+      <c r="I46">
+        <v>41</v>
+      </c>
+      <c r="J46" t="s">
+        <v>240</v>
+      </c>
+      <c r="K46" t="s">
+        <v>254</v>
+      </c>
+      <c r="M46" t="s">
+        <v>107</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>9</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA46">
+        <v>1</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.block_conv3</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="1"/>
+        <v>block_conv3 : WORD;</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>226</v>
+      </c>
+      <c r="I47">
+        <v>42</v>
+      </c>
+      <c r="J47" t="s">
+        <v>241</v>
+      </c>
+      <c r="K47" t="s">
+        <v>254</v>
+      </c>
+      <c r="M47" t="s">
+        <v>107</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>9</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA47">
+        <v>1</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.block_conv4</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="1"/>
+        <v>block_conv4 : WORD;</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>227</v>
+      </c>
+      <c r="I48">
+        <v>43</v>
+      </c>
+      <c r="J48" t="s">
+        <v>242</v>
+      </c>
+      <c r="K48" t="s">
+        <v>254</v>
+      </c>
+      <c r="M48" t="s">
+        <v>107</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>9</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>1</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA48">
+        <v>1</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.block_conv5</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="1"/>
+        <v>block_conv5 : WORD;</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>228</v>
+      </c>
+      <c r="I49">
+        <v>44</v>
+      </c>
+      <c r="J49" t="s">
+        <v>243</v>
+      </c>
+      <c r="K49" t="s">
+        <v>254</v>
+      </c>
+      <c r="M49" t="s">
+        <v>107</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>9</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>1</v>
+      </c>
+      <c r="X49">
+        <v>1</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA49">
+        <v>1</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.block_conv6</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="1"/>
+        <v>block_conv6 : WORD;</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>229</v>
+      </c>
+      <c r="I50">
+        <v>45</v>
+      </c>
+      <c r="J50" t="s">
+        <v>244</v>
+      </c>
+      <c r="K50" t="s">
+        <v>254</v>
+      </c>
+      <c r="M50" t="s">
+        <v>107</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>9</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>1</v>
+      </c>
+      <c r="X50">
+        <v>1</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA50">
+        <v>1</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.block_conv7</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="1"/>
+        <v>block_conv7 : WORD;</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>230</v>
+      </c>
+      <c r="I51">
+        <v>46</v>
+      </c>
+      <c r="J51" t="s">
+        <v>245</v>
+      </c>
+      <c r="K51" t="s">
+        <v>254</v>
+      </c>
+      <c r="M51" t="s">
+        <v>107</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>9</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>1</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA51">
+        <v>1</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG51">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.block_conv8</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="1"/>
+        <v>block_conv8 : WORD;</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>231</v>
+      </c>
+      <c r="I52">
+        <v>47</v>
+      </c>
+      <c r="J52" t="s">
+        <v>246</v>
+      </c>
+      <c r="K52" t="s">
+        <v>254</v>
+      </c>
+      <c r="M52" t="s">
+        <v>107</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>9</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>1</v>
+      </c>
+      <c r="X52">
+        <v>1</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA52">
+        <v>1</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.block_conv9</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="1"/>
+        <v>block_conv9 : WORD;</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>232</v>
+      </c>
+      <c r="I53">
+        <v>48</v>
+      </c>
+      <c r="J53" t="s">
+        <v>247</v>
+      </c>
+      <c r="K53" t="s">
+        <v>254</v>
+      </c>
+      <c r="M53" t="s">
+        <v>107</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>9</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>1</v>
+      </c>
+      <c r="X53">
+        <v>1</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA53">
+        <v>1</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.block_conv10</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="1"/>
+        <v>block_conv10 : WORD;</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>233</v>
+      </c>
+      <c r="I54">
+        <v>49</v>
+      </c>
+      <c r="J54" t="s">
+        <v>248</v>
+      </c>
+      <c r="K54" t="s">
+        <v>254</v>
+      </c>
+      <c r="M54" t="s">
+        <v>107</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>9</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>1</v>
+      </c>
+      <c r="X54">
+        <v>1</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA54">
+        <v>1</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.block_conv11</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="1"/>
+        <v>block_conv11 : WORD;</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>234</v>
+      </c>
+      <c r="I55">
+        <v>50</v>
+      </c>
+      <c r="J55" t="s">
+        <v>249</v>
+      </c>
+      <c r="K55" t="s">
+        <v>254</v>
+      </c>
+      <c r="M55" t="s">
+        <v>107</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>9</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>1</v>
+      </c>
+      <c r="X55">
+        <v>1</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA55">
+        <v>1</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.block_conv12</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="1"/>
+        <v>block_conv12 : WORD;</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>235</v>
+      </c>
+      <c r="I56">
+        <v>51</v>
+      </c>
+      <c r="J56" t="s">
+        <v>250</v>
+      </c>
+      <c r="K56" t="s">
+        <v>254</v>
+      </c>
+      <c r="M56" t="s">
+        <v>107</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>9</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>1</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA56">
+        <v>1</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.block_conv13</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="1"/>
+        <v>block_conv13 : WORD;</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>236</v>
+      </c>
+      <c r="I57">
+        <v>52</v>
+      </c>
+      <c r="J57" t="s">
+        <v>251</v>
+      </c>
+      <c r="K57" t="s">
+        <v>254</v>
+      </c>
+      <c r="M57" t="s">
+        <v>107</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>9</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>1</v>
+      </c>
+      <c r="X57">
+        <v>1</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA57">
+        <v>1</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG57">
+        <v>0</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.elapsed_time_mach1</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="1"/>
+        <v>elapsed_time_mach1 : WORD;</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>237</v>
+      </c>
+      <c r="I58">
+        <v>53</v>
+      </c>
+      <c r="J58" t="s">
+        <v>252</v>
+      </c>
+      <c r="K58" t="s">
+        <v>255</v>
+      </c>
+      <c r="M58" t="s">
+        <v>107</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>100</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>1</v>
+      </c>
+      <c r="X58">
+        <v>1</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA58">
+        <v>1</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.elapsed_time_mach2</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="1"/>
+        <v>elapsed_time_mach2 : WORD;</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>238</v>
+      </c>
+      <c r="I59">
+        <v>54</v>
+      </c>
+      <c r="J59" t="s">
+        <v>253</v>
+      </c>
+      <c r="K59" t="s">
+        <v>255</v>
+      </c>
+      <c r="M59" t="s">
+        <v>107</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>100</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>1</v>
+      </c>
+      <c r="X59">
+        <v>1</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA59">
+        <v>1</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG59">
+        <v>0</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI59" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Docs/Mapping.xlsx
+++ b/Docs/Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\INDI_23-24_Automation_of_a_Production_Line\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D13147C-1409-403F-908D-5CCB52342651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA47AC4-43A8-47F3-880C-413DD451E17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E7531F86-CD14-469F-BE46-90E0953B7E75}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="297">
   <si>
     <t>Channel</t>
   </si>
@@ -805,6 +805,129 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>wh1_p0</t>
+  </si>
+  <si>
+    <t>wh1_p1</t>
+  </si>
+  <si>
+    <t>wh1_p2</t>
+  </si>
+  <si>
+    <t>wh1_p3</t>
+  </si>
+  <si>
+    <t>wh1_p4</t>
+  </si>
+  <si>
+    <t>wh1_p5</t>
+  </si>
+  <si>
+    <t>wh1_p6</t>
+  </si>
+  <si>
+    <t>wh1_p7</t>
+  </si>
+  <si>
+    <t>wh1_p8</t>
+  </si>
+  <si>
+    <t>wh1_p9</t>
+  </si>
+  <si>
+    <t>4:0023</t>
+  </si>
+  <si>
+    <t>4:0024</t>
+  </si>
+  <si>
+    <t>4:0025</t>
+  </si>
+  <si>
+    <t>4:0026</t>
+  </si>
+  <si>
+    <t>4:0027</t>
+  </si>
+  <si>
+    <t>4:0028</t>
+  </si>
+  <si>
+    <t>4:0029</t>
+  </si>
+  <si>
+    <t>4:0030</t>
+  </si>
+  <si>
+    <t>4:0031</t>
+  </si>
+  <si>
+    <t>4:0032</t>
+  </si>
+  <si>
+    <t>block_count</t>
+  </si>
+  <si>
+    <t>wh2_p0</t>
+  </si>
+  <si>
+    <t>wh2_p1</t>
+  </si>
+  <si>
+    <t>wh2_p2</t>
+  </si>
+  <si>
+    <t>wh2_p3</t>
+  </si>
+  <si>
+    <t>wh2_p4</t>
+  </si>
+  <si>
+    <t>wh2_p5</t>
+  </si>
+  <si>
+    <t>wh2_p6</t>
+  </si>
+  <si>
+    <t>wh2_p7</t>
+  </si>
+  <si>
+    <t>wh2_p8</t>
+  </si>
+  <si>
+    <t>wh2_p9</t>
+  </si>
+  <si>
+    <t>4:0033</t>
+  </si>
+  <si>
+    <t>4:0034</t>
+  </si>
+  <si>
+    <t>4:0035</t>
+  </si>
+  <si>
+    <t>4:0036</t>
+  </si>
+  <si>
+    <t>4:0037</t>
+  </si>
+  <si>
+    <t>4:0038</t>
+  </si>
+  <si>
+    <t>4:0039</t>
+  </si>
+  <si>
+    <t>4:0040</t>
+  </si>
+  <si>
+    <t>4:0041</t>
+  </si>
+  <si>
+    <t>4:0042</t>
   </si>
 </sst>
 </file>
@@ -3450,10 +3573,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE25F351-A1F9-4C05-A232-8ADB34DE3270}">
-  <dimension ref="A1:AM59"/>
+  <dimension ref="A1:AM78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:B59"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3718,7 +3841,7 @@
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" t="str">
-        <f t="shared" ref="B4:B59" si="0">CONCATENATE("Application.MAIN_SM.",H4)</f>
+        <f t="shared" ref="B4:B67" si="0">CONCATENATE("Application.MAIN_SM.",H4)</f>
         <v>Application.MAIN_SM.op_mode_conv1</v>
       </c>
       <c r="C4" s="1"/>
@@ -3806,7 +3929,7 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="str">
-        <f t="shared" ref="D5:D59" si="1">CONCATENATE(H5," : WORD;")</f>
+        <f t="shared" ref="D5:D68" si="1">CONCATENATE(H5," : WORD;")</f>
         <v>manual_cm_conv1 : WORD;</v>
       </c>
       <c r="E5" s="1"/>
@@ -6120,7 +6243,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
@@ -6202,7 +6325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
@@ -6284,7 +6407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
@@ -6366,7 +6489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
@@ -6448,7 +6571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
@@ -6530,7 +6653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
@@ -6612,7 +6735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
@@ -6694,7 +6817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
@@ -6776,7 +6899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
@@ -6858,7 +6981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
@@ -6940,7 +7063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
@@ -7022,118 +7145,93 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" t="s">
-        <v>0</v>
-      </c>
-      <c r="G44" t="s">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.block_conv1</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="1"/>
+        <v>block_conv1 : WORD;</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>2</v>
-      </c>
-      <c r="I44" t="s">
-        <v>3</v>
+        <v>224</v>
+      </c>
+      <c r="I44">
+        <v>40</v>
       </c>
       <c r="J44" t="s">
-        <v>4</v>
+        <v>239</v>
       </c>
       <c r="K44" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" t="s">
-        <v>97</v>
+        <v>254</v>
       </c>
       <c r="M44" t="s">
-        <v>98</v>
-      </c>
-      <c r="N44" t="s">
-        <v>99</v>
-      </c>
-      <c r="O44" t="s">
-        <v>100</v>
-      </c>
-      <c r="P44" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>6</v>
-      </c>
-      <c r="R44" t="s">
-        <v>102</v>
-      </c>
-      <c r="S44" t="s">
-        <v>103</v>
-      </c>
-      <c r="T44" t="s">
-        <v>104</v>
-      </c>
-      <c r="U44" t="s">
-        <v>108</v>
-      </c>
-      <c r="V44" t="s">
-        <v>109</v>
-      </c>
-      <c r="W44" t="s">
-        <v>110</v>
-      </c>
-      <c r="X44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>112</v>
+        <v>107</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>9</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <v>1</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
       </c>
       <c r="Z44" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="AA44">
+        <v>1</v>
       </c>
       <c r="AD44" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE44" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AF44" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="AG44">
+        <v>0</v>
       </c>
       <c r="AH44" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="AI44" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ44" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK44" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL44" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B45" t="str">
         <f t="shared" si="0"/>
-        <v>Application.MAIN_SM.block_conv1</v>
+        <v>Application.MAIN_SM.block_conv2</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="1"/>
-        <v>block_conv1 : WORD;</v>
+        <v>block_conv2 : WORD;</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -7142,13 +7240,13 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I45">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J45" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K45" t="s">
         <v>254</v>
@@ -7205,14 +7303,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v>Application.MAIN_SM.block_conv2</v>
+        <v>Application.MAIN_SM.block_conv3</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="1"/>
-        <v>block_conv2 : WORD;</v>
+        <v>block_conv3 : WORD;</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -7221,13 +7319,13 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I46">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J46" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K46" t="s">
         <v>254</v>
@@ -7284,14 +7382,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v>Application.MAIN_SM.block_conv3</v>
+        <v>Application.MAIN_SM.block_conv4</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="1"/>
-        <v>block_conv3 : WORD;</v>
+        <v>block_conv4 : WORD;</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -7300,13 +7398,13 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I47">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J47" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K47" t="s">
         <v>254</v>
@@ -7363,14 +7461,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B48" t="str">
         <f t="shared" si="0"/>
-        <v>Application.MAIN_SM.block_conv4</v>
+        <v>Application.MAIN_SM.block_conv5</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="1"/>
-        <v>block_conv4 : WORD;</v>
+        <v>block_conv5 : WORD;</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -7379,13 +7477,13 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I48">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J48" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K48" t="s">
         <v>254</v>
@@ -7445,11 +7543,11 @@
     <row r="49" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v>Application.MAIN_SM.block_conv5</v>
+        <v>Application.MAIN_SM.block_conv6</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="1"/>
-        <v>block_conv5 : WORD;</v>
+        <v>block_conv6 : WORD;</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -7458,13 +7556,13 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I49">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J49" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K49" t="s">
         <v>254</v>
@@ -7524,11 +7622,11 @@
     <row r="50" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v>Application.MAIN_SM.block_conv6</v>
+        <v>Application.MAIN_SM.block_conv7</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="1"/>
-        <v>block_conv6 : WORD;</v>
+        <v>block_conv7 : WORD;</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -7537,13 +7635,13 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I50">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J50" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K50" t="s">
         <v>254</v>
@@ -7603,11 +7701,11 @@
     <row r="51" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B51" t="str">
         <f t="shared" si="0"/>
-        <v>Application.MAIN_SM.block_conv7</v>
+        <v>Application.MAIN_SM.block_conv8</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="1"/>
-        <v>block_conv7 : WORD;</v>
+        <v>block_conv8 : WORD;</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -7616,13 +7714,13 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I51">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J51" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K51" t="s">
         <v>254</v>
@@ -7682,11 +7780,11 @@
     <row r="52" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B52" t="str">
         <f t="shared" si="0"/>
-        <v>Application.MAIN_SM.block_conv8</v>
+        <v>Application.MAIN_SM.block_conv9</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="1"/>
-        <v>block_conv8 : WORD;</v>
+        <v>block_conv9 : WORD;</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -7695,13 +7793,13 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I52">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J52" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K52" t="s">
         <v>254</v>
@@ -7761,11 +7859,11 @@
     <row r="53" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B53" t="str">
         <f t="shared" si="0"/>
-        <v>Application.MAIN_SM.block_conv9</v>
+        <v>Application.MAIN_SM.block_conv10</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="1"/>
-        <v>block_conv9 : WORD;</v>
+        <v>block_conv10 : WORD;</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -7774,13 +7872,13 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I53">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J53" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K53" t="s">
         <v>254</v>
@@ -7840,11 +7938,11 @@
     <row r="54" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B54" t="str">
         <f t="shared" si="0"/>
-        <v>Application.MAIN_SM.block_conv10</v>
+        <v>Application.MAIN_SM.block_conv11</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="1"/>
-        <v>block_conv10 : WORD;</v>
+        <v>block_conv11 : WORD;</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -7853,13 +7951,13 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I54">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J54" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K54" t="s">
         <v>254</v>
@@ -7919,11 +8017,11 @@
     <row r="55" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B55" t="str">
         <f t="shared" si="0"/>
-        <v>Application.MAIN_SM.block_conv11</v>
+        <v>Application.MAIN_SM.block_conv12</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="1"/>
-        <v>block_conv11 : WORD;</v>
+        <v>block_conv12 : WORD;</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -7932,13 +8030,13 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I55">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J55" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K55" t="s">
         <v>254</v>
@@ -7998,11 +8096,11 @@
     <row r="56" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B56" t="str">
         <f t="shared" si="0"/>
-        <v>Application.MAIN_SM.block_conv12</v>
+        <v>Application.MAIN_SM.block_conv13</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="1"/>
-        <v>block_conv12 : WORD;</v>
+        <v>block_conv13 : WORD;</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -8011,13 +8109,13 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I56">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J56" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K56" t="s">
         <v>254</v>
@@ -8077,11 +8175,11 @@
     <row r="57" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B57" t="str">
         <f t="shared" si="0"/>
-        <v>Application.MAIN_SM.block_conv13</v>
+        <v>Application.MAIN_SM.elapsed_time_mach1</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="1"/>
-        <v>block_conv13 : WORD;</v>
+        <v>elapsed_time_mach1 : WORD;</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -8090,16 +8188,16 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I57">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J57" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K57" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M57" t="s">
         <v>107</v>
@@ -8108,7 +8206,7 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -8156,11 +8254,11 @@
     <row r="58" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B58" t="str">
         <f t="shared" si="0"/>
-        <v>Application.MAIN_SM.elapsed_time_mach1</v>
+        <v>Application.MAIN_SM.elapsed_time_mach2</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="1"/>
-        <v>elapsed_time_mach1 : WORD;</v>
+        <v>elapsed_time_mach2 : WORD;</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -8169,13 +8267,13 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I58">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J58" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K58" t="s">
         <v>255</v>
@@ -8235,11 +8333,11 @@
     <row r="59" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B59" t="str">
         <f t="shared" si="0"/>
-        <v>Application.MAIN_SM.elapsed_time_mach2</v>
+        <v>Application.MAIN_SM.wh1_p0</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="1"/>
-        <v>elapsed_time_mach2 : WORD;</v>
+        <v>wh1_p0 : WORD;</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -8248,16 +8346,16 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="I59">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J59" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="K59" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="M59" t="s">
         <v>107</v>
@@ -8266,7 +8364,7 @@
         <v>0</v>
       </c>
       <c r="P59">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -8290,7 +8388,7 @@
         <v>15</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD59" t="s">
         <v>17</v>
@@ -8308,6 +8406,1507 @@
         <v>17</v>
       </c>
       <c r="AI59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.wh1_p1</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="1"/>
+        <v>wh1_p1 : WORD;</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>257</v>
+      </c>
+      <c r="I60">
+        <v>56</v>
+      </c>
+      <c r="J60" t="s">
+        <v>267</v>
+      </c>
+      <c r="K60" t="s">
+        <v>276</v>
+      </c>
+      <c r="M60" t="s">
+        <v>107</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>30</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>1</v>
+      </c>
+      <c r="X60">
+        <v>1</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG60">
+        <v>0</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.wh1_p2</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="1"/>
+        <v>wh1_p2 : WORD;</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>258</v>
+      </c>
+      <c r="I61">
+        <v>57</v>
+      </c>
+      <c r="J61" t="s">
+        <v>268</v>
+      </c>
+      <c r="K61" t="s">
+        <v>276</v>
+      </c>
+      <c r="M61" t="s">
+        <v>107</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>30</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
+      <c r="X61">
+        <v>1</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG61">
+        <v>0</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.wh1_p3</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="1"/>
+        <v>wh1_p3 : WORD;</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>259</v>
+      </c>
+      <c r="I62">
+        <v>58</v>
+      </c>
+      <c r="J62" t="s">
+        <v>269</v>
+      </c>
+      <c r="K62" t="s">
+        <v>276</v>
+      </c>
+      <c r="M62" t="s">
+        <v>107</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>30</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>1</v>
+      </c>
+      <c r="X62">
+        <v>1</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG62">
+        <v>0</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.wh1_p4</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="1"/>
+        <v>wh1_p4 : WORD;</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>260</v>
+      </c>
+      <c r="I63">
+        <v>59</v>
+      </c>
+      <c r="J63" t="s">
+        <v>270</v>
+      </c>
+      <c r="K63" t="s">
+        <v>276</v>
+      </c>
+      <c r="M63" t="s">
+        <v>107</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>30</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>1</v>
+      </c>
+      <c r="X63">
+        <v>1</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG63">
+        <v>0</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.wh1_p5</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="1"/>
+        <v>wh1_p5 : WORD;</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>261</v>
+      </c>
+      <c r="I64">
+        <v>60</v>
+      </c>
+      <c r="J64" t="s">
+        <v>271</v>
+      </c>
+      <c r="K64" t="s">
+        <v>276</v>
+      </c>
+      <c r="M64" t="s">
+        <v>107</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>30</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>1</v>
+      </c>
+      <c r="X64">
+        <v>1</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG64">
+        <v>0</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.wh1_p6</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="1"/>
+        <v>wh1_p6 : WORD;</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>262</v>
+      </c>
+      <c r="I65">
+        <v>61</v>
+      </c>
+      <c r="J65" t="s">
+        <v>272</v>
+      </c>
+      <c r="K65" t="s">
+        <v>276</v>
+      </c>
+      <c r="M65" t="s">
+        <v>107</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>30</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>1</v>
+      </c>
+      <c r="X65">
+        <v>1</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG65">
+        <v>0</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.wh1_p7</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="1"/>
+        <v>wh1_p7 : WORD;</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>263</v>
+      </c>
+      <c r="I66">
+        <v>62</v>
+      </c>
+      <c r="J66" t="s">
+        <v>273</v>
+      </c>
+      <c r="K66" t="s">
+        <v>276</v>
+      </c>
+      <c r="M66" t="s">
+        <v>107</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>30</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>1</v>
+      </c>
+      <c r="X66">
+        <v>1</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG66">
+        <v>0</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B67" t="str">
+        <f t="shared" si="0"/>
+        <v>Application.MAIN_SM.wh1_p8</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="1"/>
+        <v>wh1_p8 : WORD;</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>264</v>
+      </c>
+      <c r="I67">
+        <v>63</v>
+      </c>
+      <c r="J67" t="s">
+        <v>274</v>
+      </c>
+      <c r="K67" t="s">
+        <v>276</v>
+      </c>
+      <c r="M67" t="s">
+        <v>107</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>30</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>1</v>
+      </c>
+      <c r="X67">
+        <v>1</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG67">
+        <v>0</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B68" t="str">
+        <f t="shared" ref="B68:B78" si="2">CONCATENATE("Application.MAIN_SM.",H68)</f>
+        <v>Application.MAIN_SM.wh1_p9</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>wh1_p9 : WORD;</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>265</v>
+      </c>
+      <c r="I68">
+        <v>64</v>
+      </c>
+      <c r="J68" t="s">
+        <v>275</v>
+      </c>
+      <c r="K68" t="s">
+        <v>276</v>
+      </c>
+      <c r="M68" t="s">
+        <v>107</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>30</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>1</v>
+      </c>
+      <c r="X68">
+        <v>1</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG68">
+        <v>0</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B69" t="str">
+        <f t="shared" si="2"/>
+        <v>Application.MAIN_SM.wh2_p0</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" ref="D69:D78" si="3">CONCATENATE(H69," : WORD;")</f>
+        <v>wh2_p0 : WORD;</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>277</v>
+      </c>
+      <c r="I69">
+        <v>65</v>
+      </c>
+      <c r="J69" t="s">
+        <v>287</v>
+      </c>
+      <c r="K69" t="s">
+        <v>276</v>
+      </c>
+      <c r="M69" t="s">
+        <v>107</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>30</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>1</v>
+      </c>
+      <c r="X69">
+        <v>1</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG69">
+        <v>0</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B70" t="str">
+        <f t="shared" si="2"/>
+        <v>Application.MAIN_SM.wh2_p1</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="3"/>
+        <v>wh2_p1 : WORD;</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I70">
+        <v>66</v>
+      </c>
+      <c r="J70" t="s">
+        <v>288</v>
+      </c>
+      <c r="K70" t="s">
+        <v>276</v>
+      </c>
+      <c r="M70" t="s">
+        <v>107</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>30</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>1</v>
+      </c>
+      <c r="X70">
+        <v>1</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG70">
+        <v>0</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B71" t="str">
+        <f t="shared" si="2"/>
+        <v>Application.MAIN_SM.wh2_p2</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="3"/>
+        <v>wh2_p2 : WORD;</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>279</v>
+      </c>
+      <c r="I71">
+        <v>67</v>
+      </c>
+      <c r="J71" t="s">
+        <v>289</v>
+      </c>
+      <c r="K71" t="s">
+        <v>276</v>
+      </c>
+      <c r="M71" t="s">
+        <v>107</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>30</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>1</v>
+      </c>
+      <c r="X71">
+        <v>1</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG71">
+        <v>0</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B72" t="str">
+        <f t="shared" si="2"/>
+        <v>Application.MAIN_SM.wh2_p3</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="3"/>
+        <v>wh2_p3 : WORD;</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>280</v>
+      </c>
+      <c r="I72">
+        <v>68</v>
+      </c>
+      <c r="J72" t="s">
+        <v>290</v>
+      </c>
+      <c r="K72" t="s">
+        <v>276</v>
+      </c>
+      <c r="M72" t="s">
+        <v>107</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>30</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>1</v>
+      </c>
+      <c r="X72">
+        <v>1</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG72">
+        <v>0</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B73" t="str">
+        <f t="shared" si="2"/>
+        <v>Application.MAIN_SM.wh2_p4</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="3"/>
+        <v>wh2_p4 : WORD;</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>281</v>
+      </c>
+      <c r="I73">
+        <v>69</v>
+      </c>
+      <c r="J73" t="s">
+        <v>291</v>
+      </c>
+      <c r="K73" t="s">
+        <v>276</v>
+      </c>
+      <c r="M73" t="s">
+        <v>107</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>30</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>1</v>
+      </c>
+      <c r="X73">
+        <v>1</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG73">
+        <v>0</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B74" t="str">
+        <f t="shared" si="2"/>
+        <v>Application.MAIN_SM.wh2_p5</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="3"/>
+        <v>wh2_p5 : WORD;</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>282</v>
+      </c>
+      <c r="I74">
+        <v>70</v>
+      </c>
+      <c r="J74" t="s">
+        <v>292</v>
+      </c>
+      <c r="K74" t="s">
+        <v>276</v>
+      </c>
+      <c r="M74" t="s">
+        <v>107</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>30</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>1</v>
+      </c>
+      <c r="X74">
+        <v>1</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG74">
+        <v>0</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B75" t="str">
+        <f t="shared" si="2"/>
+        <v>Application.MAIN_SM.wh2_p6</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="3"/>
+        <v>wh2_p6 : WORD;</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>283</v>
+      </c>
+      <c r="I75">
+        <v>71</v>
+      </c>
+      <c r="J75" t="s">
+        <v>293</v>
+      </c>
+      <c r="K75" t="s">
+        <v>276</v>
+      </c>
+      <c r="M75" t="s">
+        <v>107</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>30</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>1</v>
+      </c>
+      <c r="X75">
+        <v>1</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG75">
+        <v>0</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B76" t="str">
+        <f t="shared" si="2"/>
+        <v>Application.MAIN_SM.wh2_p7</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="3"/>
+        <v>wh2_p7 : WORD;</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>284</v>
+      </c>
+      <c r="I76">
+        <v>72</v>
+      </c>
+      <c r="J76" t="s">
+        <v>294</v>
+      </c>
+      <c r="K76" t="s">
+        <v>276</v>
+      </c>
+      <c r="M76" t="s">
+        <v>107</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>30</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>1</v>
+      </c>
+      <c r="X76">
+        <v>1</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG76">
+        <v>0</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B77" t="str">
+        <f t="shared" si="2"/>
+        <v>Application.MAIN_SM.wh2_p8</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="3"/>
+        <v>wh2_p8 : WORD;</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>285</v>
+      </c>
+      <c r="I77">
+        <v>73</v>
+      </c>
+      <c r="J77" t="s">
+        <v>295</v>
+      </c>
+      <c r="K77" t="s">
+        <v>276</v>
+      </c>
+      <c r="M77" t="s">
+        <v>107</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>30</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>1</v>
+      </c>
+      <c r="X77">
+        <v>1</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG77">
+        <v>0</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B78" t="str">
+        <f t="shared" si="2"/>
+        <v>Application.MAIN_SM.wh2_p9</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="3"/>
+        <v>wh2_p9 : WORD;</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>286</v>
+      </c>
+      <c r="I78">
+        <v>74</v>
+      </c>
+      <c r="J78" t="s">
+        <v>296</v>
+      </c>
+      <c r="K78" t="s">
+        <v>276</v>
+      </c>
+      <c r="M78" t="s">
+        <v>107</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>30</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>1</v>
+      </c>
+      <c r="X78">
+        <v>1</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG78">
+        <v>0</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI78" t="s">
         <v>17</v>
       </c>
     </row>
